--- a/2021-02-16_Revisión_consignaciones.xlsx
+++ b/2021-02-16_Revisión_consignaciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>Agencia_Movimiento</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Fecha_Movimiento</t>
   </si>
   <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
     <t>Monto_Movimiento</t>
   </si>
   <si>
@@ -194,6 +197,21 @@
   </si>
   <si>
     <t>2021-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0700 - Consignacion Ahorro </t>
+  </si>
+  <si>
+    <t>CANCELACIÓN CDAT 1011105, CONSITTUCION NUEVO TITULO, APORTES ORDINARIOS - Traslado del producto 09200000001011105</t>
+  </si>
+  <si>
+    <t>0700 - Consignacion Ahorro desde PDA</t>
+  </si>
+  <si>
+    <t>SUCURSAL VIRTUAL - TRANSFERENCIA DESDE LA CUENTA 01100000001000262</t>
+  </si>
+  <si>
+    <t>RETIRO DE CUENTA DER AHORROS PARA ACTUALIZACION DE APORTES - Traslado del producto 01100000000002689</t>
   </si>
   <si>
     <t>Favor confirmar consignacion a aportes de 1116252120 - EDWAR ALFONSO PINILLA TORRES por 100000.0 realizada el 2021-02-16 por Caja</t>
@@ -573,13 +591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,431 +634,470 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>100000</v>
+      </c>
+      <c r="J2">
+        <v>453295</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>140449.5</v>
+      </c>
+      <c r="J3">
+        <v>200774.58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4">
+        <v>525000</v>
+      </c>
+      <c r="J4">
+        <v>579991</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44243</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <v>100000</v>
+      </c>
+      <c r="J5">
+        <v>154991</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6">
+        <v>102946</v>
+      </c>
+      <c r="J6">
+        <v>201916.54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7">
+        <v>1995000</v>
+      </c>
+      <c r="J7">
+        <v>2049991</v>
+      </c>
+      <c r="K7" s="2">
+        <v>44243</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8">
+        <v>335000</v>
+      </c>
+      <c r="J8">
+        <v>400585.39</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44243</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9">
+        <v>2415000</v>
+      </c>
+      <c r="J9">
+        <v>2469512</v>
+      </c>
+      <c r="K9" s="2">
+        <v>44243</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10">
+        <v>269000</v>
+      </c>
+      <c r="J10">
+        <v>415879.54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11">
+        <v>4000000</v>
+      </c>
+      <c r="J11">
+        <v>4054991</v>
+      </c>
+      <c r="K11" s="2">
+        <v>44243</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12">
+        <v>1050000</v>
+      </c>
+      <c r="J12">
+        <v>1104991</v>
+      </c>
+      <c r="K12" s="2">
+        <v>44243</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2">
-        <v>100000</v>
-      </c>
-      <c r="I2">
-        <v>453295</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13">
+        <v>934500</v>
+      </c>
+      <c r="J13">
+        <v>989491</v>
+      </c>
+      <c r="K13" s="2">
+        <v>44243</v>
+      </c>
+      <c r="L13" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3">
-        <v>140449.5</v>
-      </c>
-      <c r="I3">
-        <v>200774.58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4">
-        <v>525000</v>
-      </c>
-      <c r="I4">
-        <v>579991</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44243</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5">
-        <v>100000</v>
-      </c>
-      <c r="I5">
-        <v>154991</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6">
-        <v>102946</v>
-      </c>
-      <c r="I6">
-        <v>201916.54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7">
-        <v>1995000</v>
-      </c>
-      <c r="I7">
-        <v>2049991</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44243</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8">
-        <v>335000</v>
-      </c>
-      <c r="I8">
-        <v>400585.39</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44243</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9">
-        <v>2415000</v>
-      </c>
-      <c r="I9">
-        <v>2469512</v>
-      </c>
-      <c r="J9" s="2">
-        <v>44243</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10">
-        <v>269000</v>
-      </c>
-      <c r="I10">
-        <v>415879.54</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11">
-        <v>4000000</v>
-      </c>
-      <c r="I11">
-        <v>4054991</v>
-      </c>
-      <c r="J11" s="2">
-        <v>44243</v>
-      </c>
-      <c r="K11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12">
-        <v>1050000</v>
-      </c>
-      <c r="I12">
-        <v>1104991</v>
-      </c>
-      <c r="J12" s="2">
-        <v>44243</v>
-      </c>
-      <c r="K12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13">
-        <v>934500</v>
-      </c>
-      <c r="I13">
-        <v>989491</v>
-      </c>
-      <c r="J13" s="2">
-        <v>44243</v>
-      </c>
-      <c r="K13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" t="s">
-        <v>62</v>
+      <c r="M13" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
